--- a/src/main/resources/xlsx/pcs/wy-2-1_3.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-2-1_3.xlsx
@@ -149,6 +149,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>分党委名称：name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党支部数：branch     党员总数（含预备党员）：member        应参会党员总数：expect       实参会党员总数：actual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">title候选人初步人选推荐提名汇总表
 </t>
@@ -161,16 +169,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（“stage”阶段，deadline前报党委组织部）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分党委名称：name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>党支部数：branch     党员总数（含预备党员）：member        应参会党员总数：expect       实参会党员总数：actual</t>
+      <t>（“stage”阶段，deadline报党委组织部）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,7 +690,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,7 +707,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
@@ -722,7 +722,7 @@
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -737,7 +737,7 @@
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>

--- a/src/main/resources/xlsx/pcs/wy-2-1_3.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-2-1_3.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7870A29-1C02-4FCC-B68D-EACE14AF5C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="党委委员" sheetId="1" r:id="rId1"/>
@@ -101,54 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2017年</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">日    </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分党委名称：name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,15 +122,19 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（“stage”阶段，deadline报党委组织部）</t>
+      <t>（“stage”阶段）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             年   月   日       </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
@@ -686,11 +643,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,7 +664,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
@@ -722,7 +679,7 @@
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -737,7 +694,7 @@
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -832,7 +789,7 @@
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>

--- a/src/main/resources/xlsx/pcs/wy-2-1_3.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-2-1_3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7870A29-1C02-4FCC-B68D-EACE14AF5C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BDD77C-936B-497D-B677-69C708487C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="45" windowWidth="19695" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="党委委员" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>序号</t>
   </si>
@@ -66,11 +66,6 @@
   <si>
     <t>推荐提名的
 党员数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐提名的
-党支部数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,6 +123,15 @@
   </si>
   <si>
     <t xml:space="preserve">             年   月   日       </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐提名的党支部数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐提名的正式
+党员数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -334,6 +338,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -363,6 +370,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -658,78 +674,86 @@
     <col min="4" max="5" width="5.75" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="8" width="9.5" style="10" customWidth="1"/>
-    <col min="9" max="9" width="34.625" style="13" customWidth="1"/>
-    <col min="10" max="11" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="28" style="13" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+    <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -754,10 +778,11 @@
       <c r="I5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -769,50 +794,54 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
-    <row r="8" spans="1:11" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="J4:J5"/>
+  <mergeCells count="10">
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:I4"/>
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/pcs/wy-2-1_3.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-2-1_3.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BDD77C-936B-497D-B677-69C708487C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="45" windowWidth="19695" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="45" windowWidth="19695" windowHeight="15555"/>
   </bookViews>
   <sheets>
     <sheet name="党委委员" sheetId="1" r:id="rId1"/>
@@ -49,10 +48,6 @@
   </si>
   <si>
     <t>入党时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在单位及职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -97,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分党委名称：name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>党支部数：branch     党员总数（含预备党员）：member        应参会党员总数：expect       实参会党员总数：actual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,11 +125,19 @@
 党员数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>二级党组织名称：name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
@@ -341,6 +340,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -376,9 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,11 +658,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L5"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -675,85 +674,85 @@
     <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="8" width="9.5" style="10" customWidth="1"/>
     <col min="9" max="9" width="28" style="13" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="15" customWidth="1"/>
     <col min="11" max="11" width="8.25" customWidth="1"/>
     <col min="12" max="12" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="A1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="A2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="A3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>17</v>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -767,20 +766,20 @@
         <v>5</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
@@ -799,36 +798,36 @@
       <c r="L6" s="14"/>
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="A9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">
